--- a/class_3_participant.xlsx
+++ b/class_3_participant.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,51 +450,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>محسن</t>
+          <t>محمد حسين</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>حسنی</t>
+          <t>حسني</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09100069231</t>
+          <t>09081230912</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0025109391</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>محمد حسین</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>حسنی</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>019283901283</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2314234213</t>
+          <t>1232423423</t>
         </is>
       </c>
     </row>
